--- a/src/main/webapp/page/usermanager/excel/GX.xlsx
+++ b/src/main/webapp/page/usermanager/excel/GX.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>机构名称_institution</t>
   </si>
   <si>
+    <t>机构ID_userId</t>
+  </si>
+  <si>
     <t>密码_password</t>
   </si>
   <si>
+    <t>账号IP段_ip</t>
+  </si>
+  <si>
     <t>资源余额_GBalanceLimit</t>
   </si>
   <si>
@@ -31,6 +37,42 @@
     <t>NSTL余额_GNstlBalanceLimit</t>
   </si>
   <si>
+    <t>中信所资源余额_IsticBalanceLimit</t>
+  </si>
+  <si>
+    <t>万方分析余额_WFMinerBalanceLimit</t>
+  </si>
+  <si>
+    <t>万方分析限时_WFMinerTimeLimit</t>
+  </si>
+  <si>
+    <t>万方分析次数_WFMinerCountLimit</t>
+  </si>
+  <si>
+    <t>万方检测-硕博论文版余额_MDCheck</t>
+  </si>
+  <si>
+    <t>万方检测-硕博论文版次数_MDCheckCount</t>
+  </si>
+  <si>
+    <t>万方检测-本科论文版余额_BDCheck</t>
+  </si>
+  <si>
+    <t>万方检测-本科论文版次数_BDCheckCount</t>
+  </si>
+  <si>
+    <t>万方检测-职称论文版余额_PACheck</t>
+  </si>
+  <si>
+    <t>万方检测-职称论文版次数_PACheckCount</t>
+  </si>
+  <si>
+    <t>万方检测-学术预审版余额_ALCheck</t>
+  </si>
+  <si>
+    <t>万方检测-学术预审版次数_ALCheckCount</t>
+  </si>
+  <si>
     <t>测试批量注册203</t>
   </si>
   <si>
@@ -40,59 +82,27 @@
     <t>000000</t>
   </si>
   <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
     <t>测试批量注册204</t>
   </si>
   <si>
     <t>ceshijigouzhuce204</t>
-  </si>
-  <si>
-    <t>中信所资源余额_IsticBalanceLimit</t>
-  </si>
-  <si>
-    <t>万方分析余额_WFMinerBalanceLimit</t>
-  </si>
-  <si>
-    <t>万方分析限时_WFMinerTimeLimit</t>
-  </si>
-  <si>
-    <t>万方分析次数_WFMinerCountLimit</t>
-  </si>
-  <si>
-    <t>万方检测-硕博论文版余额_MDCheck</t>
-  </si>
-  <si>
-    <t>万方检测-硕博论文版次数_MDCheckCount</t>
-  </si>
-  <si>
-    <t>万方检测-本科论文版余额_BDCheck</t>
-  </si>
-  <si>
-    <t>万方检测-本科论文版次数_BDCheckCount</t>
-  </si>
-  <si>
-    <t>万方检测-职称论文版余额_PACheck</t>
-  </si>
-  <si>
-    <t>万方检测-职称论文版次数_PACheckCount</t>
-  </si>
-  <si>
-    <t>万方检测-学术预审版余额_ALCheck</t>
-  </si>
-  <si>
-    <t>万方检测-学术预审版次数_ALCheckCount</t>
-  </si>
-  <si>
-    <t>机构ID_userId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,27 +130,351 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,34 +482,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_Sheet1" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -460,141 +1086,151 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.125" customWidth="1"/>
-    <col min="15" max="15" width="31.625" customWidth="1"/>
-    <col min="16" max="16" width="36" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="31" style="1" customWidth="1"/>
+    <col min="15" max="15" width="36.125" customWidth="1"/>
+    <col min="16" max="16" width="31.625" customWidth="1"/>
+    <col min="17" max="17" width="36" customWidth="1"/>
+    <col min="18" max="18" width="31.125" customWidth="1"/>
+    <col min="19" max="19" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:19">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="E2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:19">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" ht="14.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
         <v>1000</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/webapp/page/usermanager/excel/GX.xlsx
+++ b/src/main/webapp/page/usermanager/excel/GX.xlsx
@@ -82,7 +82,7 @@
     <t>000000</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>127.0.0.1-127.0.0.1</t>
   </si>
   <si>
     <t>测试批量注册204</t>
@@ -98,9 +98,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -191,12 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -279,6 +273,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -319,157 +319,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,148 +586,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1102,8 +1102,8 @@
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" customWidth="1"/>
     <col min="7" max="7" width="29" style="2" customWidth="1"/>
@@ -1180,7 +1180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:19">
+    <row r="2" ht="15" customHeight="1" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:19">
+    <row r="3" ht="15" customHeight="1" spans="1:19">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>

--- a/src/main/webapp/page/usermanager/excel/GX.xlsx
+++ b/src/main/webapp/page/usermanager/excel/GX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>机构名称_institution</t>
   </si>
@@ -31,9 +31,6 @@
     <t>资源余额_GBalanceLimit</t>
   </si>
   <si>
-    <t>资源限时_GTimeLimit</t>
-  </si>
-  <si>
     <t>NSTL余额_GNstlBalanceLimit</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
   </si>
   <si>
     <t>万方分析余额_WFMinerBalanceLimit</t>
-  </si>
-  <si>
-    <t>万方分析限时_WFMinerTimeLimit</t>
   </si>
   <si>
     <t>万方分析次数_WFMinerCountLimit</t>
@@ -95,12 +89,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -191,6 +186,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -273,12 +274,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -319,6 +314,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,6 +380,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,6 +422,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,24 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,144 +593,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1092,7 +1088,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,128 +1101,114 @@
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="36.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="31" style="1" customWidth="1"/>
-    <col min="15" max="15" width="36.125" customWidth="1"/>
-    <col min="16" max="16" width="31.625" customWidth="1"/>
-    <col min="17" max="17" width="36" customWidth="1"/>
-    <col min="18" max="18" width="31.125" customWidth="1"/>
-    <col min="19" max="19" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="29" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="31" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="31.625" customWidth="1"/>
+    <col min="15" max="15" width="36" style="3" customWidth="1"/>
+    <col min="16" max="16" width="31.125" customWidth="1"/>
+    <col min="17" max="17" width="35.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:16">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:19">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>2000</v>
       </c>
+      <c r="J2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:19">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
+    <row r="3" ht="15" customHeight="1" spans="1:16">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>1000</v>
       </c>
+      <c r="J3" s="2"/>
       <c r="L3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/page/usermanager/excel/GX.xlsx
+++ b/src/main/webapp/page/usermanager/excel/GX.xlsx
@@ -90,17 +90,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,11 +139,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,75 +163,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,23 +222,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,19 +276,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -284,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,76 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,8 +512,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,150 +600,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>

--- a/src/main/webapp/page/usermanager/excel/GX.xlsx
+++ b/src/main/webapp/page/usermanager/excel/GX.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
-    <t>机构名称_institution</t>
-  </si>
-  <si>
-    <t>机构ID_userId</t>
+    <t>机构名称(必填)_institution</t>
+  </si>
+  <si>
+    <t>机构ID(必填)_userId</t>
   </si>
   <si>
     <t>密码_password</t>
@@ -90,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -140,7 +140,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,115 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,43 +291,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,139 +423,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,11 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,23 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,8 +557,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -1098,12 +1098,12 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
